--- a/easyExcel/测试用表1_学生.xlsx
+++ b/easyExcel/测试用表1_学生.xlsx
@@ -97,6 +97,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="50.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -120,6 +121,11 @@
           <t>学生信息表</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>学生信息表</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -142,8 +148,13 @@
           <t>出生日期</t>
         </is>
       </c>
-    </row>
-    <row r="3">
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>学生头像</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" customHeight="true" ht="200.0">
       <c r="A3" t="inlineStr">
         <is>
           <t>114514</t>
@@ -151,7 +162,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>空手道部员</t>
+          <t>田所浩二</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -161,11 +172,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+          <t>2021-08-24</t>
+        </is>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" customHeight="true" ht="200.0">
       <c r="A4" t="inlineStr">
         <is>
           <t>114514</t>
@@ -173,7 +185,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>空手道部员</t>
+          <t>田所浩二</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -183,11 +195,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+          <t>2021-08-24</t>
+        </is>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" customHeight="true" ht="200.0">
       <c r="A5" t="inlineStr">
         <is>
           <t>114514</t>
@@ -195,7 +208,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>空手道部员</t>
+          <t>田所浩二</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -205,11 +218,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+          <t>2021-08-24</t>
+        </is>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" customHeight="true" ht="200.0">
       <c r="A6" t="inlineStr">
         <is>
           <t>114514</t>
@@ -217,7 +231,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>空手道部员</t>
+          <t>田所浩二</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -227,11 +241,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+          <t>2021-08-24</t>
+        </is>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" customHeight="true" ht="200.0">
       <c r="A7" t="inlineStr">
         <is>
           <t>114514</t>
@@ -239,7 +254,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>空手道部员</t>
+          <t>田所浩二</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -249,13 +264,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
-        </is>
-      </c>
+          <t>2021-08-24</t>
+        </is>
+      </c>
+      <c r="E7"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
